--- a/results/master_list.xlsx
+++ b/results/master_list.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18900" xr2:uid="{F38E9C14-D69A-4A6B-AB97-F49BE6298BE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="index list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>preparation</t>
   </si>
@@ -53,9 +53,6 @@
     <t>chi square contingency</t>
   </si>
   <si>
-    <t>test-run</t>
-  </si>
-  <si>
     <t>ADI</t>
   </si>
   <si>
@@ -69,6 +66,33 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>agglomerative</t>
+  </si>
+  <si>
+    <t>homogeneity</t>
+  </si>
+  <si>
+    <t>completeness</t>
+  </si>
+  <si>
+    <t>v measure</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>FM score</t>
   </si>
 </sst>
 </file>
@@ -107,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -156,38 +180,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
@@ -503,179 +587,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46540577-3C4F-488F-A6EE-0CCC3791E1A2}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="9" customWidth="1"/>
-    <col min="6" max="9" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
         <v>113.586785639087</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="3">
         <v>0.166765860049469</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="3">
         <v>116.12622767315</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="3">
         <v>0.129079959418576</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="3">
         <v>2.94946467092132E-3</v>
       </c>
+      <c r="K4" s="3">
+        <v>5.1789841662779702E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6.4582239141044107E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5.7482927455440799E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1.1714483927865201E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.14994839029853901</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="9">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
         <v>274.80380476118</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="3">
         <v>3.1157149758541601E-18</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="3">
         <v>276.27002915663599</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="3">
         <v>1.9372156753489701E-18</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="3">
         <v>3.6757795675302303E-2</v>
       </c>
+      <c r="K5" s="3">
+        <v>0.12321059034540401</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.12706069538815401</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.125106028385045</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7.9123921910137299E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.15929086243367499</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>426.68518949964999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.3057518358993503E-42</v>
+      </c>
+      <c r="H6" s="3">
+        <v>361.66099360747501</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.6581400931644599E-31</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5.8807120740975702E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.16129315461149199</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.161676932241127</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.16148481540942</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.119232207911921</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.170966087301158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9">
-        <v>426.68518949964999</v>
-      </c>
-      <c r="F6" s="9">
-        <v>6.3057518358993503E-42</v>
-      </c>
-      <c r="G6" s="9">
-        <v>361.66099360747501</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2.6581400931644599E-31</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5.8807120740975702E-2</v>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>111.05534938134799</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.21145198943298299</v>
+      </c>
+      <c r="H7" s="3">
+        <v>115.00354226044399</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.14487694405437801</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.6701926331847504E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5.1289147711670001E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6.8547344729953399E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5.8675530591150798E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.15573846677319E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.16660281312026801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>318.35926491286</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.3665545890751701E-24</v>
+      </c>
+      <c r="H8" s="3">
+        <v>327.702695792631</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.2113672508451898E-26</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.9386944782992798E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.14614847194843</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.14964139959200601</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.14787431210339</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.1035704984128</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.16331133346270901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>472.01606922288403</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.2381894734877E-49</v>
+      </c>
+      <c r="H9" s="3">
+        <v>395.487267410372</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.3039888323482499E-37</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6.0464075799662502E-2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.17637895735731701</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.179376524069598</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.17786511208696601</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.13522145377998601</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.17372334696241701</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/master_list.xlsx
+++ b/results/master_list.xlsx
@@ -53,9 +53,6 @@
     <t>chi square contingency</t>
   </si>
   <si>
-    <t>ADI</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>FM score</t>
+  </si>
+  <si>
+    <t>ARI</t>
   </si>
 </sst>
 </file>
@@ -236,15 +236,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,18 +270,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -590,7 +590,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,75 +610,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,33 +686,33 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>113.586785639087</v>
@@ -750,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>274.80380476118</v>
@@ -797,16 +797,16 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>426.68518949964999</v>
@@ -844,16 +844,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>111.05534938134799</v>
@@ -891,16 +891,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
         <v>318.35926491286</v>
@@ -938,16 +938,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="3">
         <v>472.01606922288403</v>
@@ -982,12 +982,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B1:C1"/>
@@ -997,6 +991,12 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
